--- a/resultados/vazao_transferencias/vazao_transferencia_alto_tiete.xlsx
+++ b/resultados/vazao_transferencias/vazao_transferencia_alto_tiete.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,7 +412,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vazão captada da ETA</t>
+          <t>Vazão captada da ETA (m³/s)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -428,6 +428,11 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Q Transf Guaió</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -495,6 +500,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -560,6 +570,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -625,6 +640,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -690,6 +710,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -755,6 +780,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -820,6 +850,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -885,6 +920,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -950,6 +990,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -1015,6 +1060,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -1080,6 +1130,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -1145,6 +1200,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -1182,12 +1242,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>219,3</t>
+          <t>204,99</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1206,6 +1266,11 @@
         </is>
       </c>
       <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1275,6 +1340,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -1340,6 +1410,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1405,6 +1480,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -1470,6 +1550,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1535,6 +1620,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -1600,6 +1690,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -1665,6 +1760,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -1730,6 +1830,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -1795,6 +1900,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -1860,6 +1970,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -1925,6 +2040,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -1962,12 +2082,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>229,51</t>
+          <t>215,79</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1986,6 +2106,11 @@
         </is>
       </c>
       <c r="M25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2055,6 +2180,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -2120,6 +2250,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
@@ -2185,6 +2320,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -2250,6 +2390,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -2315,6 +2460,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -2380,6 +2530,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -2445,6 +2600,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
@@ -2510,6 +2670,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -2575,6 +2740,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -2640,6 +2810,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
@@ -2705,6 +2880,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
@@ -2742,12 +2922,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>216,41</t>
+          <t>206,04</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2766,6 +2946,11 @@
         </is>
       </c>
       <c r="M37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2835,6 +3020,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
@@ -2900,6 +3090,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
@@ -2965,6 +3160,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
@@ -3030,6 +3230,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
@@ -3095,6 +3300,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
@@ -3160,6 +3370,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
@@ -3225,6 +3440,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
@@ -3290,6 +3510,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
@@ -3355,6 +3580,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
@@ -3420,6 +3650,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
@@ -3485,6 +3720,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -3522,12 +3762,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>229,34</t>
+          <t>218,68</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3546,6 +3786,11 @@
         </is>
       </c>
       <c r="M49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3615,6 +3860,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
@@ -3680,6 +3930,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
@@ -3745,6 +4000,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
@@ -3810,6 +4070,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
@@ -3875,6 +4140,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -3940,6 +4210,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
@@ -4005,6 +4280,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -4070,6 +4350,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -4135,6 +4420,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -4200,6 +4490,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
@@ -4265,6 +4560,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -4302,12 +4602,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>214,51</t>
+          <t>206,41</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4326,6 +4626,11 @@
         </is>
       </c>
       <c r="M61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4395,6 +4700,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
@@ -4460,6 +4770,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -4525,6 +4840,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -4590,6 +4910,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -4655,6 +4980,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
@@ -4720,6 +5050,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -4785,6 +5120,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
@@ -4850,6 +5190,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -4915,6 +5260,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
@@ -4980,6 +5330,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
@@ -5045,6 +5400,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
@@ -5082,12 +5442,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>212,13</t>
+          <t>204,98</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5106,6 +5466,11 @@
         </is>
       </c>
       <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5175,6 +5540,11 @@
           <t>0,3</t>
         </is>
       </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -5240,6 +5610,11 @@
           <t>0,3</t>
         </is>
       </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
@@ -5305,6 +5680,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
@@ -5370,6 +5750,11 @@
           <t>0,3</t>
         </is>
       </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -5435,6 +5820,11 @@
           <t>0,3</t>
         </is>
       </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
@@ -5500,6 +5890,11 @@
           <t>0,3</t>
         </is>
       </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -5565,6 +5960,11 @@
           <t>0,3</t>
         </is>
       </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
@@ -5630,6 +6030,11 @@
           <t>0,3</t>
         </is>
       </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
@@ -5695,6 +6100,11 @@
           <t>0,3</t>
         </is>
       </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
@@ -5760,6 +6170,11 @@
           <t>0,373</t>
         </is>
       </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -5825,6 +6240,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -5862,12 +6282,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>208,21</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5888,6 +6308,11 @@
       <c r="M85" t="inlineStr">
         <is>
           <t>0,375</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5955,6 +6380,11 @@
           <t>0,371</t>
         </is>
       </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -6020,6 +6450,11 @@
           <t>0,374</t>
         </is>
       </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -6085,6 +6520,11 @@
           <t>0,355</t>
         </is>
       </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
@@ -6150,6 +6590,11 @@
           <t>0,383</t>
         </is>
       </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
@@ -6215,6 +6660,11 @@
           <t>0,4</t>
         </is>
       </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -6280,6 +6730,11 @@
           <t>0,364</t>
         </is>
       </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -6345,6 +6800,11 @@
           <t>0,37</t>
         </is>
       </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
@@ -6410,6 +6870,11 @@
           <t>0,38</t>
         </is>
       </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -6475,6 +6940,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
@@ -6540,6 +7010,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -6605,6 +7080,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -6642,12 +7122,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>209,4</t>
+          <t>203,56</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6666,6 +7146,11 @@
         </is>
       </c>
       <c r="M97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6735,6 +7220,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -6800,6 +7290,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -6865,6 +7360,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -6930,6 +7430,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
@@ -6995,6 +7500,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
@@ -7060,6 +7570,11 @@
           <t>0,45</t>
         </is>
       </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
@@ -7125,6 +7640,11 @@
           <t>0,15</t>
         </is>
       </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
@@ -7190,6 +7710,11 @@
           <t>0,35</t>
         </is>
       </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
@@ -7255,6 +7780,11 @@
           <t>0,34</t>
         </is>
       </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
@@ -7320,6 +7850,11 @@
           <t>0,508</t>
         </is>
       </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -7385,6 +7920,11 @@
           <t>0,33</t>
         </is>
       </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
@@ -7422,12 +7962,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>200,55</t>
+          <t>195,76</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7448,6 +7988,11 @@
       <c r="M109" t="inlineStr">
         <is>
           <t>0,35</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7515,6 +8060,11 @@
           <t>0,34</t>
         </is>
       </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
@@ -7580,6 +8130,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
@@ -7645,6 +8200,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
@@ -7710,6 +8270,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
@@ -7775,6 +8340,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
@@ -7840,6 +8410,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
@@ -7905,6 +8480,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
@@ -7970,6 +8550,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
@@ -8035,6 +8620,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
@@ -8100,6 +8690,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
@@ -8165,6 +8760,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
@@ -8202,12 +8802,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>194,83</t>
+          <t>190,74</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8226,6 +8826,11 @@
         </is>
       </c>
       <c r="M121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8295,6 +8900,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
@@ -8360,6 +8970,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
@@ -8425,6 +9040,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
@@ -8490,6 +9110,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
@@ -8555,6 +9180,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
@@ -8620,6 +9250,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
@@ -8685,6 +9320,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
@@ -8750,6 +9390,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
@@ -8815,6 +9460,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
@@ -8880,6 +9530,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
@@ -8945,6 +9600,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
@@ -8982,12 +9642,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>191,42</t>
+          <t>187,8</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9006,6 +9666,11 @@
         </is>
       </c>
       <c r="M133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9075,6 +9740,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
@@ -9140,6 +9810,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
@@ -9205,6 +9880,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
@@ -9270,6 +9950,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
@@ -9335,6 +10020,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
@@ -9400,6 +10090,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
@@ -9465,6 +10160,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
@@ -9530,6 +10230,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
@@ -9595,6 +10300,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
@@ -9660,6 +10370,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
@@ -9725,6 +10440,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
@@ -9762,12 +10482,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>192,03</t>
+          <t>188,59</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9786,6 +10506,11 @@
         </is>
       </c>
       <c r="M145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9855,6 +10580,11 @@
           <t>0,43</t>
         </is>
       </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
@@ -9920,6 +10650,11 @@
           <t>0,12</t>
         </is>
       </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
@@ -9985,6 +10720,11 @@
           <t>0,44</t>
         </is>
       </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
@@ -10050,6 +10790,11 @@
           <t>0,35</t>
         </is>
       </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
@@ -10115,6 +10860,11 @@
           <t>0,24</t>
         </is>
       </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
@@ -10180,6 +10930,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
@@ -10245,6 +11000,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
@@ -10310,6 +11070,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -10375,6 +11140,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -10440,6 +11210,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -10505,6 +11280,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
@@ -10542,12 +11322,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>189,32</t>
+          <t>186,22</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10566,6 +11346,11 @@
         </is>
       </c>
       <c r="M157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10635,6 +11420,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -10700,6 +11490,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -10765,6 +11560,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
@@ -10830,6 +11630,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -10895,6 +11700,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
@@ -10960,6 +11770,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
@@ -11025,6 +11840,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
@@ -11090,6 +11910,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
@@ -11155,6 +11980,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
@@ -11220,6 +12050,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
@@ -11285,6 +12120,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
@@ -11322,7 +12162,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>186,7</t>
+          <t>183,9</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -11346,6 +12186,11 @@
         </is>
       </c>
       <c r="M169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -11415,6 +12260,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
@@ -11480,6 +12330,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
@@ -11545,6 +12400,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
@@ -11610,6 +12470,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
@@ -11675,6 +12540,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
@@ -11740,6 +12610,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
@@ -11805,6 +12680,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
@@ -11870,6 +12750,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
@@ -11935,6 +12820,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
@@ -12000,6 +12890,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
@@ -12065,6 +12960,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
@@ -12102,12 +13002,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>179,39</t>
+          <t>177,1</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12126,6 +13026,11 @@
         </is>
       </c>
       <c r="M181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -12195,6 +13100,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
@@ -12260,10 +13170,15 @@
           <t>0</t>
         </is>
       </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -12272,12 +13187,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>49,37</t>
+          <t>44,57</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -12287,12 +13202,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>62,04</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -12302,17 +13217,17 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>14,74</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>8,781</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
